--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,26 +8152,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Proyecto Puerto Atacama</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Compañía Minera Carmen</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Proyecto Puerto Atacama</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Abastecimiento de Agua Desalada Mantoverde</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Mantos Copper S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>85</v>
+        <v>62000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Sistema de descarga de pesca Chañaral</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Pesquera Bahía Caldera S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Abastecimiento de Agua Desalada Mantoverde</t>
+          <t>Sistema de descarga de pesca Chañaral</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A.</t>
+          <t>Pesquera Bahía Caldera S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>62000</v>
+        <v>1000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,11 +13591,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -20584,26 +20584,26 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
+          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,26 +20632,26 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
+          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>39000</v>
+        <v>250</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -7220,7 +7220,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,26 +8152,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Puerto Atacama</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Proyecto Puerto Atacama</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Compañía Minera Carmen</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Abastecimiento de Agua Desalada Mantoverde</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>62000</v>
+        <v>85</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Sistema de descarga de pesca Chañaral</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Pesquera Bahía Caldera S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Sistema de descarga de pesca Chañaral</t>
+          <t>Abastecimiento de Agua Desalada Mantoverde</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Pesquera Bahía Caldera S.A.</t>
+          <t>Mantos Copper S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1000</v>
+        <v>62000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,11 +13591,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -20584,26 +20584,26 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
+          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>39000</v>
+        <v>250</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,26 +20632,26 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
+          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,26 +8152,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Puerto Atacama</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Proyecto Puerto Atacama</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Compañía Minera Carmen</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Abastecimiento de Agua Desalada Mantoverde</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>62000</v>
+        <v>85</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Sistema de descarga de pesca Chañaral</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Pesquera Bahía Caldera S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Sistema de descarga de pesca Chañaral</t>
+          <t>Abastecimiento de Agua Desalada Mantoverde</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Pesquera Bahía Caldera S.A.</t>
+          <t>Mantos Copper S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1000</v>
+        <v>62000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,11 +13591,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -20584,26 +20584,26 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
+          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>39000</v>
+        <v>250</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,26 +20632,26 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
+          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,26 +8152,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Proyecto Puerto Atacama</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Compañía Minera Carmen</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Proyecto Puerto Atacama</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Abastecimiento de Agua Desalada Mantoverde</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Mantos Copper S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>85</v>
+        <v>62000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Sistema de descarga de pesca Chañaral</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Pesquera Bahía Caldera S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Abastecimiento de Agua Desalada Mantoverde</t>
+          <t>Sistema de descarga de pesca Chañaral</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A.</t>
+          <t>Pesquera Bahía Caldera S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>62000</v>
+        <v>1000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,11 +13591,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -20584,26 +20584,26 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
+          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,26 +20632,26 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
+          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>39000</v>
+        <v>250</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -9751,7 +9751,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -16567,7 +16567,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F338" t="n">
@@ -17143,7 +17143,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F350" t="n">
@@ -18679,7 +18679,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F382" t="n">
@@ -19447,7 +19447,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F398" t="n">
@@ -20071,7 +20071,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F411" t="n">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,26 +8152,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Puerto Atacama</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Proyecto Puerto Atacama</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Compañía Minera Carmen</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Abastecimiento de Agua Desalada Mantoverde</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>62000</v>
+        <v>85</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Sistema de descarga de pesca Chañaral</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Pesquera Bahía Caldera S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Sistema de descarga de pesca Chañaral</t>
+          <t>Abastecimiento de Agua Desalada Mantoverde</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Pesquera Bahía Caldera S.A.</t>
+          <t>Mantos Copper S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1000</v>
+        <v>62000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,11 +13591,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -20584,26 +20584,26 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
+          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>39000</v>
+        <v>250</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,26 +20632,26 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
+          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,26 +8152,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Proyecto Puerto Atacama</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Compañía Minera Carmen</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Proyecto Puerto Atacama</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Abastecimiento de Agua Desalada Mantoverde</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Mantos Copper S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>85</v>
+        <v>62000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Sistema de descarga de pesca Chañaral</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Pesquera Bahía Caldera S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Abastecimiento de Agua Desalada Mantoverde</t>
+          <t>Sistema de descarga de pesca Chañaral</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A.</t>
+          <t>Pesquera Bahía Caldera S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>62000</v>
+        <v>1000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,11 +13591,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -20584,26 +20584,26 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
+          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,26 +20632,26 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
+          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>39000</v>
+        <v>250</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,26 +8152,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Puerto Atacama</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Proyecto Puerto Atacama</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Compañía Minera Carmen</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Abastecimiento de Agua Desalada Mantoverde</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>62000</v>
+        <v>85</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Sistema de descarga de pesca Chañaral</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Pesquera Bahía Caldera S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Sistema de descarga de pesca Chañaral</t>
+          <t>Abastecimiento de Agua Desalada Mantoverde</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Pesquera Bahía Caldera S.A.</t>
+          <t>Mantos Copper S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1000</v>
+        <v>62000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Desmontes de Hierro Mina Carmen (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Minera Santa Fé</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4225033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Procesamiento de Desmontes de Hierro Mina Carmen (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Minera Santa Fé</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4225033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,11 +13591,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -20584,26 +20584,26 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
+          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>39000</v>
+        <v>250</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,26 +20632,26 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
+          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,26 +8152,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Proyecto Puerto Atacama</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Compañía Minera Carmen</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Proyecto Puerto Atacama</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Abastecimiento de Agua Desalada Mantoverde</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Mantos Copper S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>85</v>
+        <v>62000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Sistema de descarga de pesca Chañaral</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Pesquera Bahía Caldera S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Abastecimiento de Agua Desalada Mantoverde</t>
+          <t>Sistema de descarga de pesca Chañaral</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A.</t>
+          <t>Pesquera Bahía Caldera S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>62000</v>
+        <v>1000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Procesamiento de Desmontes de Hierro Mina Carmen (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Minera Santa Fé</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4225033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Desmontes de Hierro Mina Carmen (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Minera Santa Fé</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4225033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,11 +13591,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -20584,26 +20584,26 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
+          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,26 +20632,26 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
+          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>39000</v>
+        <v>250</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -14887,7 +14887,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F303" t="n">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MANTOS COPPER S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -8023,7 +8023,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -13207,7 +13207,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
@@ -19351,7 +19351,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F396" t="n">
@@ -19975,7 +19975,7 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F409" t="n">
@@ -20455,7 +20455,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
@@ -20743,7 +20743,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,26 +8152,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Puerto Atacama</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Proyecto Puerto Atacama</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Compañía Minera Carmen</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Abastecimiento de Agua Desalada Mantoverde</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>MANTOVERDE S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>62000</v>
+        <v>85</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Sistema de descarga de pesca Chañaral</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Pesquera Bahía Caldera S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Sistema de descarga de pesca Chañaral</t>
+          <t>Abastecimiento de Agua Desalada Mantoverde</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Pesquera Bahía Caldera S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1000</v>
+        <v>62000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Desmontes de Hierro Mina Carmen (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Minera Santa Fé</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4225033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Procesamiento de Desmontes de Hierro Mina Carmen (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Minera Santa Fé</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4225033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,11 +13591,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -20584,26 +20584,26 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
+          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>39000</v>
+        <v>250</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,26 +20632,26 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
+          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,26 +8152,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Proyecto Puerto Atacama</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Compañía Minera Carmen</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Proyecto Puerto Atacama</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Abastecimiento de Agua Desalada Mantoverde</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>85</v>
+        <v>62000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Sistema de descarga de pesca Chañaral</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Pesquera Bahía Caldera S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Abastecimiento de Agua Desalada Mantoverde</t>
+          <t>Sistema de descarga de pesca Chañaral</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>MANTOVERDE S.A.</t>
+          <t>Pesquera Bahía Caldera S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>62000</v>
+        <v>1000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Procesamiento de Desmontes de Hierro Mina Carmen (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Minera Santa Fé</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4225033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Desmontes de Hierro Mina Carmen (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Minera Santa Fé</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4225033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,11 +13591,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -20584,26 +20584,26 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
+          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,26 +20632,26 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
+          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>39000</v>
+        <v>250</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,26 +8152,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Proyecto Puerto Atacama</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Compañía Minera Carmen</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Proyecto Puerto Atacama</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Abastecimiento de Agua Desalada Mantoverde</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>85</v>
+        <v>62000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Sistema de descarga de pesca Chañaral</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Pesquera Bahía Caldera S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Abastecimiento de Agua Desalada Mantoverde</t>
+          <t>Sistema de descarga de pesca Chañaral</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>MANTOVERDE S.A.</t>
+          <t>Pesquera Bahía Caldera S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>62000</v>
+        <v>1000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Procesamiento de Desmontes de Hierro Mina Carmen (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Minera Santa Fé</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4225033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Desmontes de Hierro Mina Carmen (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Minera Santa Fé</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4225033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,11 +13591,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -20584,26 +20584,26 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
+          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,26 +20632,26 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
+          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>39000</v>
+        <v>250</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,26 +8152,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Puerto Atacama</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Proyecto Puerto Atacama</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Compañía Minera Carmen</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Abastecimiento de Agua Desalada Mantoverde</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>MANTOVERDE S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>62000</v>
+        <v>85</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Sistema de descarga de pesca Chañaral</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Pesquera Bahía Caldera S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Sistema de descarga de pesca Chañaral</t>
+          <t>Abastecimiento de Agua Desalada Mantoverde</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Pesquera Bahía Caldera S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1000</v>
+        <v>62000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Desmontes de Hierro Mina Carmen (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Minera Santa Fé</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4225033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Procesamiento de Desmontes de Hierro Mina Carmen (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Minera Santa Fé</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4225033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,11 +13591,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -20584,26 +20584,26 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
+          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>39000</v>
+        <v>250</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,26 +20632,26 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
+          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -12199,7 +12199,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F247" t="n">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -12487,7 +12487,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F253" t="n">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F255" t="n">
@@ -20599,7 +20599,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F422" t="n">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,26 +8152,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Puerto Atacama</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Proyecto Puerto Atacama</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Compañía Minera Carmen</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Abastecimiento de Agua Desalada Mantoverde</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>MANTOVERDE S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>62000</v>
+        <v>85</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Sistema de descarga de pesca Chañaral</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Pesquera Bahía Caldera S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Sistema de descarga de pesca Chañaral</t>
+          <t>Abastecimiento de Agua Desalada Mantoverde</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Pesquera Bahía Caldera S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1000</v>
+        <v>62000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Desmontes de Hierro Mina Carmen (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Minera Santa Fé</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4225033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Procesamiento de Desmontes de Hierro Mina Carmen (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Minera Santa Fé</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4225033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,11 +13591,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -20584,26 +20584,26 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
+          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>39000</v>
+        <v>250</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,26 +20632,26 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
+          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,26 +8152,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Proyecto Puerto Atacama</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Compañía Minera Carmen</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Proyecto Puerto Atacama</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Abastecimiento de Agua Desalada Mantoverde</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>85</v>
+        <v>62000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Sistema de descarga de pesca Chañaral</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Pesquera Bahía Caldera S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Abastecimiento de Agua Desalada Mantoverde</t>
+          <t>Sistema de descarga de pesca Chañaral</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>MANTOVERDE S.A.</t>
+          <t>Pesquera Bahía Caldera S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>62000</v>
+        <v>1000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Procesamiento de Desmontes de Hierro Mina Carmen (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Minera Santa Fé</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4225033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Desmontes de Hierro Mina Carmen (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Minera Santa Fé</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4225033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,11 +13591,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -20584,26 +20584,26 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
+          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,26 +20632,26 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
+          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>39000</v>
+        <v>250</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,26 +8152,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Puerto Atacama</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Proyecto Puerto Atacama</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Compañía Minera Carmen</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Abastecimiento de Agua Desalada Mantoverde</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>MANTOVERDE S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>62000</v>
+        <v>85</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Sistema de descarga de pesca Chañaral</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Pesquera Bahía Caldera S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Sistema de descarga de pesca Chañaral</t>
+          <t>Abastecimiento de Agua Desalada Mantoverde</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Pesquera Bahía Caldera S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1000</v>
+        <v>62000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,11 +13591,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -20584,26 +20584,26 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
+          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>39000</v>
+        <v>250</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,26 +20632,26 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
+          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,26 +8152,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Proyecto Puerto Atacama</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Compañía Minera Carmen</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Proyecto Puerto Atacama</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Abastecimiento de Agua Desalada Mantoverde</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>85</v>
+        <v>62000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Sistema de descarga de pesca Chañaral</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Pesquera Bahía Caldera S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Abastecimiento de Agua Desalada Mantoverde</t>
+          <t>Sistema de descarga de pesca Chañaral</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>MANTOVERDE S.A.</t>
+          <t>Pesquera Bahía Caldera S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>62000</v>
+        <v>1000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,11 +13591,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -20584,26 +20584,26 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
+          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,26 +20632,26 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
+          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>39000</v>
+        <v>250</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,26 +8152,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Puerto Atacama</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Proyecto Puerto Atacama</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Compañía Minera Carmen</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Abastecimiento de Agua Desalada Mantoverde</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>MANTOVERDE S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>62000</v>
+        <v>85</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Sistema de descarga de pesca Chañaral</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Pesquera Bahía Caldera S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Sistema de descarga de pesca Chañaral</t>
+          <t>Abastecimiento de Agua Desalada Mantoverde</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Pesquera Bahía Caldera S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1000</v>
+        <v>62000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,11 +13591,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -20584,26 +20584,26 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
+          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>39000</v>
+        <v>250</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,26 +20632,26 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
+          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -5335,7 +5335,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ACCIONA ENERGIA CHILE S.A.</t>
+          <t>Acciona Energía Chile SpA</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -17287,7 +17287,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>ACCIONA ENERGIA CHILE S.A.</t>
+          <t>Acciona Energía Chile SpA</t>
         </is>
       </c>
       <c r="F353" t="n">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,26 +8152,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Proyecto Puerto Atacama</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Compañía Minera Carmen</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Proyecto Puerto Atacama</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Abastecimiento de Agua Desalada Mantoverde</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>85</v>
+        <v>62000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Sistema de descarga de pesca Chañaral</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Pesquera Bahía Caldera S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Abastecimiento de Agua Desalada Mantoverde</t>
+          <t>Sistema de descarga de pesca Chañaral</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>MANTOVERDE S.A.</t>
+          <t>Pesquera Bahía Caldera S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>62000</v>
+        <v>1000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -12487,7 +12487,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F253" t="n">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F255" t="n">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,11 +13591,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -20584,26 +20584,26 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
+          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,26 +20632,26 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
+          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>39000</v>
+        <v>250</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,26 +8152,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Puerto Atacama</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Proyecto Puerto Atacama</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Compañía Minera Carmen</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Abastecimiento de Agua Desalada Mantoverde</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>MANTOVERDE S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>62000</v>
+        <v>85</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Sistema de descarga de pesca Chañaral</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Pesquera Bahía Caldera S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Sistema de descarga de pesca Chañaral</t>
+          <t>Abastecimiento de Agua Desalada Mantoverde</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Pesquera Bahía Caldera S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1000</v>
+        <v>62000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,11 +13591,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -20584,26 +20584,26 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
+          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>39000</v>
+        <v>250</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,26 +20632,26 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
+          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Chañaral.xlsx
+++ b/data/Chañaral.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,26 +8152,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Proyecto Puerto Atacama</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Compañía Minera Carmen</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Proyecto Puerto Atacama</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157106&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ampliación de depósito de Ripios Lixiviados, Planta El Salado</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Abastecimiento de Agua Desalada Mantoverde</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>85</v>
+        <v>62000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Sistema de descarga de pesca Chañaral</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Pesquera Bahía Caldera S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Abastecimiento de Agua Desalada Mantoverde</t>
+          <t>Sistema de descarga de pesca Chañaral</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>MANTOVERDE S.A.</t>
+          <t>Pesquera Bahía Caldera S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>62000</v>
+        <v>1000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,11 +13591,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -20584,26 +20584,26 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
+          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,26 +20632,26 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión (220 KV) Paposo-Diego de Almagro</t>
+          <t>Exploración de los Relaves en la Bahia de Chañaral</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Sociedad Minera Legal C-1 Abra de Chañaral</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>39000</v>
+        <v>250</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
